--- a/energysources.xlsx
+++ b/energysources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zoha Mushtaq\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02C4078-2237-4069-8AA3-378666739536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F7EC84-B239-443D-8E8A-1131A6C00548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>Sources</t>
   </si>
@@ -184,9 +184,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,7 +534,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -579,11 +584,11 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1">
-        <v>1E-3</v>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -605,10 +610,10 @@
       <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>0.318</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>0.318</v>
       </c>
     </row>
@@ -631,11 +636,11 @@
       <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="1">
-        <v>0.314</v>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -657,11 +662,11 @@
       <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="1">
-        <v>4.1000000000000002E-2</v>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -683,11 +688,11 @@
       <c r="F6" t="s">
         <v>34</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="1">
-        <v>0.311</v>
+      <c r="H6" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -709,11 +714,11 @@
       <c r="F7" t="s">
         <v>37</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="1">
-        <v>7.0000000000000001E-3</v>
+      <c r="H7" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -735,11 +740,11 @@
       <c r="F8" t="s">
         <v>37</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="1">
-        <v>5.0000000000000001E-3</v>
+      <c r="H8" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -761,11 +766,11 @@
       <c r="F9" t="s">
         <v>37</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="1">
-        <v>2E-3</v>
+      <c r="H9" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
